--- a/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
+++ b/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData INDIA FINAL\elec\FoTCAMRBtPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\FoTCAMRBtPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47310A4-5B9F-4472-9368-18FCA402DA87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FoTCAMRBtPF Fraction of Transmission Capacity Across Modeled Region Border that Provides Flexibility</t>
   </si>
@@ -36,9 +37,6 @@
     <t>Fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmission Capacity That Provides Flexibility </t>
-  </si>
-  <si>
     <t>Ministry of Power</t>
   </si>
   <si>
@@ -52,12 +50,30 @@
   </si>
   <si>
     <t>All imports into India are from hydro facilities, so we assume these are fully flexible.</t>
+  </si>
+  <si>
+    <t>Transmission Capacity That Provides Flexibility (dimensionless)</t>
+  </si>
+  <si>
+    <t>This variable represents the share of the transmission capacity across the modeled</t>
+  </si>
+  <si>
+    <t>region border that can be used to provide flexibility.  This may be due to flexible</t>
+  </si>
+  <si>
+    <t>generation outside the modeled region, or it may be due to differences in</t>
+  </si>
+  <si>
+    <t>temporal alignment between inflexible resources within the modeled region and</t>
+  </si>
+  <si>
+    <t>inflexible resources outside the modeled region.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +139,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,24 +448,48 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -458,21 +498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
